--- a/src/excel/amendment.xlsx
+++ b/src/excel/amendment.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\0702数据处理\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDE73D18-B467-4CF5-8C24-53C510E8AA02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
   <si>
     <t>number</t>
   </si>
@@ -206,18 +212,70 @@
   <si>
     <t>S.Amdt.1460</t>
   </si>
+  <si>
+    <t>Act65 of 2002G.24390GoN 236</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amended by General Intelligence Laws Amendment Act 11 of 2013</t>
+  </si>
+  <si>
+    <t>Amended by Public Service Amendment Act 30 of 2007</t>
+  </si>
+  <si>
+    <t>Amended by General Intelligence Laws Amendment Act 52 of 2003</t>
+  </si>
+  <si>
+    <t>Act68 of 2002G.24356GoN 189</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amended by General Intelligence Laws Amendment Act 52 of 2003</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz.U. 1997 nr 133 poz. 883</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz.U. 1996 nr 61 poz. 283</t>
+  </si>
+  <si>
+    <t>Dz.U. 1995 nr 34 poz. 163</t>
+  </si>
+  <si>
+    <t>Dz.U. 1995 nr 13 poz. 59</t>
+  </si>
+  <si>
+    <t>Dz.U. 1991 nr 4 poz. 18</t>
+  </si>
+  <si>
+    <t>Dz.U. 1982 nr 31 poz. 214</t>
+  </si>
+  <si>
+    <t>Dz.U. 1981 nr 20 poz. 101</t>
+  </si>
+  <si>
+    <t>Dz.U. 2001 nr 112 poz. 1198</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dz.U. 1984 nr 5 poz. 24</t>
+  </si>
+  <si>
+    <t>1998：204</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>2010:1969</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,7 +287,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="16"/>
@@ -239,344 +297,42 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="4"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -612,253 +368,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -878,62 +392,42 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1191,26 +685,26 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:D49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="37.1666666666667" style="1" customWidth="1"/>
-    <col min="3" max="3" width="45.1666666666667" customWidth="1"/>
-    <col min="4" max="4" width="29.1666666666667" customWidth="1"/>
+    <col min="1" max="2" width="37.125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="45.125" customWidth="1"/>
+    <col min="4" max="4" width="29.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21.75" spans="1:4">
+    <row r="1" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1224,7 +718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="20.4" spans="1:4">
+    <row r="2" spans="1:4" ht="20.25" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -1238,11 +732,11 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C3" t="s">
@@ -1252,7 +746,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="3:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
       <c r="C4" t="s">
         <v>11</v>
       </c>
@@ -1260,7 +756,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="3:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" t="s">
         <v>12</v>
       </c>
@@ -1268,7 +766,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="3:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
       <c r="C6" t="s">
         <v>13</v>
       </c>
@@ -1276,7 +776,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="3:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" t="s">
         <v>14</v>
       </c>
@@ -1284,7 +786,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="3:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7"/>
+      <c r="B8" s="7"/>
       <c r="C8" t="s">
         <v>15</v>
       </c>
@@ -1292,7 +796,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="3:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" t="s">
         <v>16</v>
       </c>
@@ -1300,7 +806,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="3:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
       <c r="C10" t="s">
         <v>17</v>
       </c>
@@ -1308,7 +816,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="3:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
       <c r="C11" t="s">
         <v>18</v>
       </c>
@@ -1316,7 +826,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
       <c r="C12" t="s">
         <v>19</v>
       </c>
@@ -1324,7 +836,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="3:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
       <c r="C13" t="s">
         <v>20</v>
       </c>
@@ -1332,11 +846,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C14" t="s">
@@ -1346,7 +860,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="3:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
       <c r="C15" t="s">
         <v>24</v>
       </c>
@@ -1354,7 +870,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="3:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
       <c r="C16" t="s">
         <v>25</v>
       </c>
@@ -1362,7 +880,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
       <c r="C17" t="s">
         <v>26</v>
       </c>
@@ -1370,7 +890,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
       <c r="C18" t="s">
         <v>27</v>
       </c>
@@ -1378,11 +900,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C19" t="s">
@@ -1392,7 +914,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="3:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
       <c r="C20" t="s">
         <v>30</v>
       </c>
@@ -1400,7 +924,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="3:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
       <c r="C21" t="s">
         <v>31</v>
       </c>
@@ -1408,7 +934,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="3:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="7"/>
+      <c r="B22" s="7"/>
       <c r="C22" t="s">
         <v>32</v>
       </c>
@@ -1416,7 +944,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="3:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
       <c r="C23" t="s">
         <v>33</v>
       </c>
@@ -1424,7 +954,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
       <c r="C24" t="s">
         <v>34</v>
       </c>
@@ -1432,7 +964,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="3:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
       <c r="C25" t="s">
         <v>35</v>
       </c>
@@ -1440,7 +974,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="3:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
       <c r="C26" t="s">
         <v>36</v>
       </c>
@@ -1448,7 +984,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="3:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
       <c r="C27" t="s">
         <v>37</v>
       </c>
@@ -1456,7 +994,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="28" spans="3:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
       <c r="C28" t="s">
         <v>38</v>
       </c>
@@ -1464,7 +1004,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
       <c r="C29" t="s">
         <v>39</v>
       </c>
@@ -1472,11 +1014,11 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="7" t="s">
         <v>22</v>
       </c>
       <c r="C30" t="s">
@@ -1486,7 +1028,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="3:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
       <c r="C31" t="s">
         <v>42</v>
       </c>
@@ -1494,7 +1038,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="3:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
       <c r="C32" t="s">
         <v>43</v>
       </c>
@@ -1502,7 +1048,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="3:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
       <c r="C33" t="s">
         <v>44</v>
       </c>
@@ -1510,7 +1058,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="3:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
       <c r="C34" t="s">
         <v>45</v>
       </c>
@@ -1518,7 +1068,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="3:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
       <c r="C35" t="s">
         <v>46</v>
       </c>
@@ -1526,7 +1078,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="3:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
       <c r="C36" t="s">
         <v>47</v>
       </c>
@@ -1534,7 +1088,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="3:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
       <c r="C37" t="s">
         <v>48</v>
       </c>
@@ -1542,7 +1098,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="3:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
       <c r="C38" t="s">
         <v>49</v>
       </c>
@@ -1550,7 +1108,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="3:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
       <c r="C39" t="s">
         <v>50</v>
       </c>
@@ -1558,7 +1118,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="40" spans="3:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
       <c r="C40" t="s">
         <v>51</v>
       </c>
@@ -1566,7 +1128,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="3:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
       <c r="C41" t="s">
         <v>52</v>
       </c>
@@ -1574,7 +1138,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="3:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
       <c r="C42" t="s">
         <v>53</v>
       </c>
@@ -1582,7 +1148,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="3:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
       <c r="C43" t="s">
         <v>54</v>
       </c>
@@ -1590,7 +1158,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="44" spans="3:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
       <c r="C44" t="s">
         <v>55</v>
       </c>
@@ -1598,7 +1168,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="45" spans="3:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
       <c r="C45" t="s">
         <v>56</v>
       </c>
@@ -1606,7 +1178,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="3:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46" t="s">
         <v>57</v>
       </c>
@@ -1614,7 +1188,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="47" spans="3:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47" t="s">
         <v>58</v>
       </c>
@@ -1622,7 +1198,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="3:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
       <c r="C48" t="s">
         <v>59</v>
       </c>
@@ -1630,7 +1208,9 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="3:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
       <c r="C49" t="s">
         <v>60</v>
       </c>
@@ -1638,8 +1218,116 @@
         <v>22</v>
       </c>
     </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="10"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="8"/>
+      <c r="B51" s="9"/>
+      <c r="C51" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D51" s="10"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="8"/>
+      <c r="B52" s="9"/>
+      <c r="C52" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="D52" s="10"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D53" s="10"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" s="14"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="13"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="D55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="13"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="13"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="13"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="13"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="D59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="D61" s="10"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A50:A52"/>
     <mergeCell ref="A3:A13"/>
     <mergeCell ref="A14:A18"/>
     <mergeCell ref="A19:A29"/>
@@ -1649,8 +1337,8 @@
     <mergeCell ref="B19:B29"/>
     <mergeCell ref="B30:B49"/>
   </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>